--- a/Thunder 186/s100_Thunder186-1.0-006.xlsx
+++ b/Thunder 186/s100_Thunder186-1.0-006.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/racini/Documents/KiCad/S100 Lomas Thunder186 1.0-005 MFG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/racini/Documents/KiCad/S100 Lomas Thunder186 1.0-006 FINAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BA03DD-0360-3442-AA84-BCF5AB9AA9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6480DCBA-B2B1-5F4F-A2A9-A2E459D93FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5360" yWindow="6660" windowWidth="28040" windowHeight="18260" xr2:uid="{92B8B495-3F59-2742-AE9B-30C4B6467305}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>C9</t>
   </si>
   <si>
-    <t>2.2u</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
@@ -452,6 +449,9 @@
   </si>
   <si>
     <t>PLCC68</t>
+  </si>
+  <si>
+    <t>22u, 16v</t>
   </si>
 </sst>
 </file>
@@ -1337,8 +1337,8 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1351,7 +1351,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1374,7 +1374,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -1388,7 +1388,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3">
         <v>35</v>
@@ -1402,7 +1402,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1416,189 +1416,189 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>32</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
         <v>37</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1606,10 +1606,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1617,10 +1617,10 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1651,133 +1651,133 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
         <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
         <v>42</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
         <v>43</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
         <v>56</v>
       </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
         <v>45</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
         <v>46</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
         <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
         <v>60</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
         <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>49</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
         <v>63</v>
       </c>
-      <c r="C31" t="s">
-        <v>64</v>
-      </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2">
         <v>7406</v>
@@ -1786,40 +1786,40 @@
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
         <v>67</v>
       </c>
-      <c r="C33" t="s">
-        <v>68</v>
-      </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
         <v>69</v>
-      </c>
-      <c r="C34" t="s">
-        <v>70</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="3">
         <v>80186</v>
@@ -1828,267 +1828,267 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
         <v>50</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
         <v>51</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
         <v>75</v>
-      </c>
-      <c r="C38" t="s">
-        <v>76</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
         <v>78</v>
-      </c>
-      <c r="C39" t="s">
-        <v>79</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
         <v>80</v>
       </c>
-      <c r="C40" t="s">
-        <v>81</v>
-      </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
         <v>82</v>
       </c>
-      <c r="C41" t="s">
-        <v>83</v>
-      </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
         <v>84</v>
-      </c>
-      <c r="C42" t="s">
-        <v>85</v>
       </c>
       <c r="D42">
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
         <v>53</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
         <v>54</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
         <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
         <v>88</v>
-      </c>
-      <c r="C45" t="s">
-        <v>89</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
         <v>90</v>
       </c>
-      <c r="C46" t="s">
-        <v>91</v>
-      </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
         <v>92</v>
       </c>
-      <c r="C47" t="s">
-        <v>93</v>
-      </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
         <v>94</v>
       </c>
-      <c r="C48" t="s">
-        <v>95</v>
-      </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
         <v>96</v>
       </c>
-      <c r="C49" t="s">
-        <v>97</v>
-      </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
         <v>98</v>
       </c>
-      <c r="C50" t="s">
-        <v>99</v>
-      </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
         <v>100</v>
       </c>
-      <c r="C51" t="s">
-        <v>101</v>
-      </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
         <v>102</v>
       </c>
-      <c r="C52" t="s">
-        <v>103</v>
-      </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
         <v>104</v>
-      </c>
-      <c r="C53" t="s">
-        <v>126</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" t="s">
         <v>133</v>
-      </c>
-      <c r="C54" t="s">
-        <v>134</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2096,10 +2096,10 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2107,10 +2107,10 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D56">
         <v>13</v>
@@ -2118,10 +2118,10 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D57">
         <v>10</v>
@@ -2129,10 +2129,10 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D58">
         <v>16</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -2151,10 +2151,10 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -2173,10 +2173,10 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D62">
         <v>1</v>
